--- a/Gv Carolina-2.xlsx
+++ b/Gv Carolina-2.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="3" activeTab="3"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Pantalla Principal" sheetId="7" r:id="rId1"/>
@@ -1085,73 +1085,22 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1167,11 +1116,13 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1185,8 +1136,57 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1980,12 +1980,12 @@
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A2" s="66"/>
+      <c r="A2" s="49"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
-      <c r="F2" s="67" t="s">
+      <c r="F2" s="50" t="s">
         <v>88</v>
       </c>
       <c r="G2" s="3"/>
@@ -1994,11 +1994,11 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>
-      <c r="B3" s="68" t="s">
+      <c r="B3" s="54" t="s">
         <v>48</v>
       </c>
-      <c r="C3" s="68"/>
-      <c r="D3" s="68"/>
+      <c r="C3" s="54"/>
+      <c r="D3" s="54"/>
       <c r="E3" s="7"/>
       <c r="F3" s="7"/>
       <c r="G3" s="7"/>
@@ -2007,9 +2007,9 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="5"/>
-      <c r="B4" s="68"/>
-      <c r="C4" s="68"/>
-      <c r="D4" s="68"/>
+      <c r="B4" s="54"/>
+      <c r="C4" s="54"/>
+      <c r="D4" s="54"/>
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
       <c r="G4" s="7"/>
@@ -2018,9 +2018,9 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="5"/>
-      <c r="B5" s="68"/>
-      <c r="C5" s="68"/>
-      <c r="D5" s="68"/>
+      <c r="B5" s="54"/>
+      <c r="C5" s="54"/>
+      <c r="D5" s="54"/>
       <c r="E5" s="7"/>
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
@@ -2029,9 +2029,9 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="5"/>
-      <c r="B6" s="68"/>
-      <c r="C6" s="68"/>
-      <c r="D6" s="68"/>
+      <c r="B6" s="54"/>
+      <c r="C6" s="54"/>
+      <c r="D6" s="54"/>
       <c r="E6" s="7"/>
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
@@ -2040,9 +2040,9 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
-      <c r="B7" s="68"/>
-      <c r="C7" s="68"/>
-      <c r="D7" s="68"/>
+      <c r="B7" s="54"/>
+      <c r="C7" s="54"/>
+      <c r="D7" s="54"/>
       <c r="E7" s="7"/>
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
@@ -2051,9 +2051,9 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="5"/>
-      <c r="B8" s="68"/>
-      <c r="C8" s="68"/>
-      <c r="D8" s="68"/>
+      <c r="B8" s="54"/>
+      <c r="C8" s="54"/>
+      <c r="D8" s="54"/>
       <c r="E8" s="7"/>
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
@@ -2062,9 +2062,9 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="5"/>
-      <c r="B9" s="68"/>
-      <c r="C9" s="68"/>
-      <c r="D9" s="68"/>
+      <c r="B9" s="54"/>
+      <c r="C9" s="54"/>
+      <c r="D9" s="54"/>
       <c r="E9" s="7"/>
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
@@ -2073,9 +2073,9 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="5"/>
-      <c r="B10" s="68"/>
-      <c r="C10" s="68"/>
-      <c r="D10" s="68"/>
+      <c r="B10" s="54"/>
+      <c r="C10" s="54"/>
+      <c r="D10" s="54"/>
       <c r="E10" s="7"/>
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
@@ -2084,9 +2084,9 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="5"/>
-      <c r="B11" s="68"/>
-      <c r="C11" s="68"/>
-      <c r="D11" s="68"/>
+      <c r="B11" s="54"/>
+      <c r="C11" s="54"/>
+      <c r="D11" s="54"/>
       <c r="E11" s="7"/>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -2234,12 +2234,12 @@
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A2" s="66"/>
+      <c r="A2" s="49"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
-      <c r="F2" s="67" t="s">
+      <c r="F2" s="50" t="s">
         <v>47</v>
       </c>
       <c r="G2" s="3"/>
@@ -2253,11 +2253,11 @@
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>
-      <c r="B3" s="68" t="s">
+      <c r="B3" s="54" t="s">
         <v>48</v>
       </c>
-      <c r="C3" s="68"/>
-      <c r="D3" s="68"/>
+      <c r="C3" s="54"/>
+      <c r="D3" s="54"/>
       <c r="E3" s="7"/>
       <c r="F3" s="7"/>
       <c r="G3" s="7"/>
@@ -2271,9 +2271,9 @@
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="5"/>
-      <c r="B4" s="68"/>
-      <c r="C4" s="68"/>
-      <c r="D4" s="68"/>
+      <c r="B4" s="54"/>
+      <c r="C4" s="54"/>
+      <c r="D4" s="54"/>
       <c r="E4" s="7"/>
       <c r="F4" s="7" t="s">
         <v>76</v>
@@ -2291,11 +2291,11 @@
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="5"/>
-      <c r="B5" s="68"/>
-      <c r="C5" s="68"/>
-      <c r="D5" s="68"/>
+      <c r="B5" s="54"/>
+      <c r="C5" s="54"/>
+      <c r="D5" s="54"/>
       <c r="E5" s="7"/>
-      <c r="F5" s="69" t="s">
+      <c r="F5" s="51" t="s">
         <v>77</v>
       </c>
       <c r="G5" s="7"/>
@@ -2309,9 +2309,9 @@
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="5"/>
-      <c r="B6" s="68"/>
-      <c r="C6" s="68"/>
-      <c r="D6" s="68"/>
+      <c r="B6" s="54"/>
+      <c r="C6" s="54"/>
+      <c r="D6" s="54"/>
       <c r="E6" s="7"/>
       <c r="F6" s="7" t="s">
         <v>1</v>
@@ -2327,11 +2327,11 @@
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
-      <c r="B7" s="68"/>
-      <c r="C7" s="68"/>
-      <c r="D7" s="68"/>
+      <c r="B7" s="54"/>
+      <c r="C7" s="54"/>
+      <c r="D7" s="54"/>
       <c r="E7" s="7"/>
-      <c r="F7" s="69" t="s">
+      <c r="F7" s="51" t="s">
         <v>77</v>
       </c>
       <c r="G7" s="7"/>
@@ -2345,9 +2345,9 @@
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="5"/>
-      <c r="B8" s="68"/>
-      <c r="C8" s="68"/>
-      <c r="D8" s="68"/>
+      <c r="B8" s="54"/>
+      <c r="C8" s="54"/>
+      <c r="D8" s="54"/>
       <c r="E8" s="7"/>
       <c r="F8" s="7" t="s">
         <v>23</v>
@@ -2365,11 +2365,11 @@
     </row>
     <row r="9" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="5"/>
-      <c r="B9" s="68"/>
-      <c r="C9" s="68"/>
-      <c r="D9" s="68"/>
+      <c r="B9" s="54"/>
+      <c r="C9" s="54"/>
+      <c r="D9" s="54"/>
       <c r="E9" s="7"/>
-      <c r="F9" s="69" t="s">
+      <c r="F9" s="51" t="s">
         <v>77</v>
       </c>
       <c r="G9" s="7"/>
@@ -2383,44 +2383,44 @@
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="5"/>
-      <c r="B10" s="68"/>
-      <c r="C10" s="68"/>
-      <c r="D10" s="68"/>
+      <c r="B10" s="54"/>
+      <c r="C10" s="54"/>
+      <c r="D10" s="54"/>
       <c r="E10" s="7"/>
-      <c r="F10" s="70" t="s">
+      <c r="F10" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="G10" s="71"/>
+      <c r="G10" s="56"/>
       <c r="H10" s="7"/>
-      <c r="I10" s="72" t="s">
+      <c r="I10" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="J10" s="73"/>
+      <c r="J10" s="58"/>
       <c r="K10" s="7"/>
-      <c r="L10" s="72" t="str">
+      <c r="L10" s="57" t="str">
         <f>+IF(G8="Tercero Interviniente","Tercero Interviniente","")</f>
         <v>Tercero Interviniente</v>
       </c>
-      <c r="M10" s="73"/>
+      <c r="M10" s="58"/>
       <c r="N10" s="8"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="5"/>
-      <c r="B11" s="68"/>
-      <c r="C11" s="68"/>
-      <c r="D11" s="68"/>
+      <c r="B11" s="54"/>
+      <c r="C11" s="54"/>
+      <c r="D11" s="54"/>
       <c r="E11" s="7"/>
       <c r="F11" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="G11" s="74" t="s">
+      <c r="G11" s="52" t="s">
         <v>51</v>
       </c>
       <c r="H11" s="7"/>
       <c r="I11" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="J11" s="74" t="s">
+      <c r="J11" s="52" t="s">
         <v>50</v>
       </c>
       <c r="K11" s="7"/>
@@ -2428,7 +2428,7 @@
         <f>+IF(L10="","","Tipo de persona")</f>
         <v>Tipo de persona</v>
       </c>
-      <c r="M11" s="74"/>
+      <c r="M11" s="52"/>
       <c r="N11" s="8"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
@@ -2441,19 +2441,19 @@
         <f>+IF(G11="Natural","Nombre","Razón Social")</f>
         <v>Razón Social</v>
       </c>
-      <c r="G12" s="74"/>
+      <c r="G12" s="52"/>
       <c r="H12" s="7"/>
       <c r="I12" s="10" t="str">
         <f>+IF(J11="Natural","Nombre","Razón Social")</f>
         <v>Nombre</v>
       </c>
-      <c r="J12" s="74"/>
+      <c r="J12" s="52"/>
       <c r="K12" s="7"/>
       <c r="L12" s="10" t="str">
         <f>+IF(L10="","",(IF(M11="Natural","Nombre","Razón Social")))</f>
         <v>Razón Social</v>
       </c>
-      <c r="M12" s="74"/>
+      <c r="M12" s="52"/>
       <c r="N12" s="8"/>
     </row>
     <row r="13" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2462,23 +2462,23 @@
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
       <c r="E13" s="7"/>
-      <c r="F13" s="75" t="str">
+      <c r="F13" s="53" t="str">
         <f>+IF(G11="Natural","Cédula","NIT")</f>
         <v>NIT</v>
       </c>
-      <c r="G13" s="29"/>
+      <c r="G13" s="27"/>
       <c r="H13" s="7"/>
-      <c r="I13" s="75" t="str">
+      <c r="I13" s="53" t="str">
         <f>+IF(J11="Natural","Cédula","NIT")</f>
         <v>Cédula</v>
       </c>
-      <c r="J13" s="29"/>
+      <c r="J13" s="27"/>
       <c r="K13" s="7"/>
-      <c r="L13" s="75" t="str">
+      <c r="L13" s="53" t="str">
         <f>+IF(L10="","",(IF(M11="Natural","Cédula","NIT")))</f>
         <v>NIT</v>
       </c>
-      <c r="M13" s="29"/>
+      <c r="M13" s="27"/>
       <c r="N13" s="8"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
@@ -2526,7 +2526,7 @@
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
       <c r="H16" s="7"/>
-      <c r="I16" s="69" t="s">
+      <c r="I16" s="51" t="s">
         <v>77</v>
       </c>
       <c r="J16" s="7"/>
@@ -2561,12 +2561,12 @@
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
       <c r="E18" s="7"/>
-      <c r="F18" s="69" t="s">
+      <c r="F18" s="51" t="s">
         <v>102</v>
       </c>
       <c r="G18" s="7"/>
       <c r="H18" s="7"/>
-      <c r="I18" s="69" t="s">
+      <c r="I18" s="51" t="s">
         <v>85</v>
       </c>
       <c r="J18" s="7"/>
@@ -2601,7 +2601,7 @@
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
       <c r="E20" s="7"/>
-      <c r="F20" s="69" t="s">
+      <c r="F20" s="51" t="s">
         <v>77</v>
       </c>
       <c r="G20" s="7"/>
@@ -2744,9 +2744,9 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="5"/>
-      <c r="B5" s="64"/>
-      <c r="C5" s="64"/>
-      <c r="D5" s="64"/>
+      <c r="B5" s="47"/>
+      <c r="C5" s="47"/>
+      <c r="D5" s="47"/>
       <c r="E5" s="7"/>
       <c r="F5" s="7"/>
       <c r="G5" s="8"/>
@@ -2780,13 +2780,13 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="5"/>
-      <c r="B9" s="65" t="s">
+      <c r="B9" s="48" t="s">
         <v>89</v>
       </c>
-      <c r="C9" s="65" t="s">
+      <c r="C9" s="48" t="s">
         <v>90</v>
       </c>
-      <c r="D9" s="65" t="s">
+      <c r="D9" s="48" t="s">
         <v>91</v>
       </c>
       <c r="E9" s="7"/>
@@ -2795,26 +2795,26 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="5"/>
-      <c r="B10" s="64" t="s">
+      <c r="B10" s="47" t="s">
         <v>92</v>
       </c>
-      <c r="C10" s="64" t="s">
+      <c r="C10" s="47" t="s">
         <v>93</v>
       </c>
-      <c r="D10" s="64"/>
+      <c r="D10" s="47"/>
       <c r="E10" s="7"/>
       <c r="F10" s="7"/>
       <c r="G10" s="8"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="5"/>
-      <c r="B11" s="64" t="s">
+      <c r="B11" s="47" t="s">
         <v>94</v>
       </c>
-      <c r="C11" s="64" t="s">
+      <c r="C11" s="47" t="s">
         <v>95</v>
       </c>
-      <c r="D11" s="64"/>
+      <c r="D11" s="47"/>
       <c r="E11" s="7"/>
       <c r="F11" s="7"/>
       <c r="G11" s="8"/>
@@ -2940,7 +2940,7 @@
       <c r="A2" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="B2" s="63" t="s">
+      <c r="B2" s="46" t="s">
         <v>104</v>
       </c>
     </row>
@@ -2999,319 +2999,319 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="36" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="50" t="s">
+      <c r="A3" s="37" t="s">
         <v>9</v>
       </c>
       <c r="B3" s="16"/>
       <c r="C3" s="16"/>
-      <c r="D3" s="51" t="s">
+      <c r="D3" s="38" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="52" t="s">
+      <c r="A4" s="59" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="53"/>
-      <c r="C4" s="53"/>
-      <c r="D4" s="54" t="s">
+      <c r="B4" s="60"/>
+      <c r="C4" s="60"/>
+      <c r="D4" s="39" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="52"/>
-      <c r="B5" s="53"/>
-      <c r="C5" s="53"/>
-      <c r="D5" s="54" t="s">
+      <c r="A5" s="59"/>
+      <c r="B5" s="60"/>
+      <c r="C5" s="60"/>
+      <c r="D5" s="39" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="52"/>
-      <c r="B6" s="53"/>
-      <c r="C6" s="53"/>
-      <c r="D6" s="54" t="s">
+      <c r="A6" s="59"/>
+      <c r="B6" s="60"/>
+      <c r="C6" s="60"/>
+      <c r="D6" s="39" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="52"/>
-      <c r="B7" s="53"/>
-      <c r="C7" s="53"/>
-      <c r="D7" s="54" t="s">
+      <c r="A7" s="59"/>
+      <c r="B7" s="60"/>
+      <c r="C7" s="60"/>
+      <c r="D7" s="39" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="55"/>
-      <c r="B8" s="56"/>
-      <c r="C8" s="56"/>
-      <c r="D8" s="57" t="s">
+      <c r="A8" s="61"/>
+      <c r="B8" s="62"/>
+      <c r="C8" s="62"/>
+      <c r="D8" s="40" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="50" t="s">
+      <c r="A9" s="37" t="s">
         <v>10</v>
       </c>
       <c r="B9" s="16"/>
       <c r="C9" s="16"/>
-      <c r="D9" s="51" t="s">
+      <c r="D9" s="38" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="52" t="s">
+      <c r="A10" s="59" t="s">
         <v>21</v>
       </c>
-      <c r="B10" s="53"/>
-      <c r="C10" s="53"/>
-      <c r="D10" s="54" t="s">
+      <c r="B10" s="60"/>
+      <c r="C10" s="60"/>
+      <c r="D10" s="39" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="55"/>
-      <c r="B11" s="56"/>
-      <c r="C11" s="56"/>
-      <c r="D11" s="57" t="s">
+      <c r="A11" s="61"/>
+      <c r="B11" s="62"/>
+      <c r="C11" s="62"/>
+      <c r="D11" s="40" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="50" t="s">
+      <c r="A12" s="37" t="s">
         <v>5</v>
       </c>
       <c r="B12" s="16"/>
       <c r="C12" s="16"/>
-      <c r="D12" s="51" t="s">
+      <c r="D12" s="38" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="58"/>
+      <c r="A13" s="41"/>
       <c r="B13" s="7"/>
       <c r="C13" s="7"/>
-      <c r="D13" s="54" t="s">
+      <c r="D13" s="39" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="59"/>
-      <c r="B14" s="60"/>
-      <c r="C14" s="60"/>
-      <c r="D14" s="57" t="s">
+      <c r="A14" s="42"/>
+      <c r="B14" s="43"/>
+      <c r="C14" s="43"/>
+      <c r="D14" s="40" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="50" t="s">
+      <c r="A15" s="37" t="s">
         <v>49</v>
       </c>
       <c r="B15" s="16"/>
       <c r="C15" s="16"/>
-      <c r="D15" s="51" t="s">
+      <c r="D15" s="38" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="59"/>
-      <c r="B16" s="60"/>
-      <c r="C16" s="60"/>
-      <c r="D16" s="57" t="s">
+      <c r="A16" s="42"/>
+      <c r="B16" s="43"/>
+      <c r="C16" s="43"/>
+      <c r="D16" s="40" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="50" t="s">
+      <c r="A17" s="37" t="s">
         <v>24</v>
       </c>
       <c r="B17" s="16"/>
       <c r="C17" s="16"/>
-      <c r="D17" s="51" t="s">
+      <c r="D17" s="38" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="58"/>
+      <c r="A18" s="41"/>
       <c r="B18" s="7"/>
       <c r="C18" s="7"/>
-      <c r="D18" s="54" t="s">
+      <c r="D18" s="39" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="58"/>
+      <c r="A19" s="41"/>
       <c r="B19" s="7"/>
       <c r="C19" s="7"/>
-      <c r="D19" s="54" t="s">
+      <c r="D19" s="39" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="58"/>
+      <c r="A20" s="41"/>
       <c r="B20" s="7"/>
       <c r="C20" s="7"/>
-      <c r="D20" s="54" t="s">
+      <c r="D20" s="39" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="58"/>
+      <c r="A21" s="41"/>
       <c r="B21" s="7"/>
       <c r="C21" s="7"/>
-      <c r="D21" s="54" t="s">
+      <c r="D21" s="39" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="58"/>
+      <c r="A22" s="41"/>
       <c r="B22" s="7"/>
       <c r="C22" s="7"/>
-      <c r="D22" s="54" t="s">
+      <c r="D22" s="39" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="58"/>
+      <c r="A23" s="41"/>
       <c r="B23" s="7"/>
       <c r="C23" s="7"/>
-      <c r="D23" s="54" t="s">
+      <c r="D23" s="39" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="58"/>
+      <c r="A24" s="41"/>
       <c r="B24" s="7"/>
       <c r="C24" s="7"/>
-      <c r="D24" s="61" t="s">
+      <c r="D24" s="44" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="58"/>
+      <c r="A25" s="41"/>
       <c r="B25" s="7"/>
       <c r="C25" s="7"/>
-      <c r="D25" s="54" t="s">
+      <c r="D25" s="39" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="58"/>
+      <c r="A26" s="41"/>
       <c r="B26" s="7"/>
       <c r="C26" s="7"/>
-      <c r="D26" s="54" t="s">
+      <c r="D26" s="39" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="58"/>
+      <c r="A27" s="41"/>
       <c r="B27" s="7"/>
       <c r="C27" s="7"/>
-      <c r="D27" s="54" t="s">
+      <c r="D27" s="39" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="58"/>
+      <c r="A28" s="41"/>
       <c r="B28" s="7"/>
       <c r="C28" s="7"/>
-      <c r="D28" s="54" t="s">
+      <c r="D28" s="39" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="58"/>
+      <c r="A29" s="41"/>
       <c r="B29" s="7"/>
       <c r="C29" s="7"/>
-      <c r="D29" s="54" t="s">
+      <c r="D29" s="39" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="58"/>
+      <c r="A30" s="41"/>
       <c r="B30" s="7"/>
       <c r="C30" s="7"/>
-      <c r="D30" s="54" t="s">
+      <c r="D30" s="39" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="58"/>
+      <c r="A31" s="41"/>
       <c r="B31" s="7"/>
       <c r="C31" s="7"/>
-      <c r="D31" s="54" t="s">
+      <c r="D31" s="39" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="58"/>
+      <c r="A32" s="41"/>
       <c r="B32" s="7"/>
       <c r="C32" s="7"/>
-      <c r="D32" s="54" t="s">
+      <c r="D32" s="39" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="58"/>
+      <c r="A33" s="41"/>
       <c r="B33" s="7"/>
       <c r="C33" s="7"/>
-      <c r="D33" s="54" t="s">
+      <c r="D33" s="39" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="58"/>
+      <c r="A34" s="41"/>
       <c r="B34" s="7"/>
       <c r="C34" s="7"/>
-      <c r="D34" s="54" t="s">
+      <c r="D34" s="39" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="58"/>
+      <c r="A35" s="41"/>
       <c r="B35" s="7"/>
       <c r="C35" s="7"/>
-      <c r="D35" s="54" t="s">
+      <c r="D35" s="39" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="58"/>
+      <c r="A36" s="41"/>
       <c r="B36" s="7"/>
       <c r="C36" s="7"/>
-      <c r="D36" s="54" t="s">
+      <c r="D36" s="39" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="58"/>
+      <c r="A37" s="41"/>
       <c r="B37" s="7"/>
       <c r="C37" s="7"/>
-      <c r="D37" s="54" t="s">
+      <c r="D37" s="39" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="50" t="s">
+      <c r="A38" s="37" t="s">
         <v>45</v>
       </c>
       <c r="B38" s="16"/>
       <c r="C38" s="16"/>
-      <c r="D38" s="51" t="s">
+      <c r="D38" s="38" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="62"/>
-      <c r="B39" s="60"/>
-      <c r="C39" s="60"/>
-      <c r="D39" s="57" t="s">
+      <c r="A39" s="45"/>
+      <c r="B39" s="43"/>
+      <c r="C39" s="43"/>
+      <c r="D39" s="40" t="s">
         <v>87</v>
       </c>
     </row>
@@ -3349,7 +3349,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D23"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3375,121 +3377,121 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="69" t="s">
         <v>55</v>
       </c>
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="C2" s="25" t="s">
+      <c r="C2" s="24" t="s">
         <v>56</v>
       </c>
-      <c r="D2" s="26" t="s">
+      <c r="D2" s="25" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="27"/>
-      <c r="B3" s="28" t="s">
+      <c r="A3" s="70"/>
+      <c r="B3" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="C3" s="28" t="s">
+      <c r="C3" s="26" t="s">
         <v>56</v>
       </c>
-      <c r="D3" s="29" t="s">
+      <c r="D3" s="27" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="24" t="s">
+      <c r="A4" s="69" t="s">
         <v>59</v>
       </c>
-      <c r="B4" s="30" t="s">
+      <c r="B4" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="C4" s="31"/>
-      <c r="D4" s="32"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="30"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="33"/>
+      <c r="A5" s="71"/>
       <c r="B5" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="34" t="s">
+      <c r="C5" s="31" t="s">
         <v>60</v>
       </c>
-      <c r="D5" s="35" t="s">
+      <c r="D5" s="32" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="33"/>
+      <c r="A6" s="71"/>
       <c r="B6" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="34" t="s">
+      <c r="C6" s="31" t="s">
         <v>61</v>
       </c>
-      <c r="D6" s="35" t="s">
+      <c r="D6" s="32" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="33"/>
+      <c r="A7" s="71"/>
       <c r="B7" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="34"/>
-      <c r="D7" s="35"/>
+      <c r="C7" s="31"/>
+      <c r="D7" s="32"/>
     </row>
     <row r="8" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="27"/>
-      <c r="B8" s="36" t="s">
+      <c r="A8" s="70"/>
+      <c r="B8" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="C8" s="37"/>
-      <c r="D8" s="38"/>
+      <c r="C8" s="34"/>
+      <c r="D8" s="35"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="39" t="s">
+      <c r="A9" s="72" t="s">
         <v>42</v>
       </c>
-      <c r="B9" s="40" t="s">
+      <c r="B9" s="74" t="s">
         <v>42</v>
       </c>
-      <c r="C9" s="31" t="s">
+      <c r="C9" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="D9" s="32" t="s">
+      <c r="D9" s="30" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="41"/>
-      <c r="B10" s="42"/>
-      <c r="C10" s="37" t="s">
+      <c r="A10" s="73"/>
+      <c r="B10" s="75"/>
+      <c r="C10" s="34" t="s">
         <v>61</v>
       </c>
-      <c r="D10" s="38" t="s">
+      <c r="D10" s="35" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="24" t="s">
+      <c r="A11" s="69" t="s">
         <v>62</v>
       </c>
-      <c r="B11" s="30" t="s">
+      <c r="B11" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="31"/>
+      <c r="C11" s="29"/>
       <c r="D11" s="4"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="33"/>
+      <c r="A12" s="71"/>
       <c r="B12" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="C12" s="34" t="s">
+      <c r="C12" s="31" t="s">
         <v>60</v>
       </c>
       <c r="D12" s="8" t="s">
@@ -3497,11 +3499,11 @@
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="33"/>
+      <c r="A13" s="71"/>
       <c r="B13" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="C13" s="34" t="s">
+      <c r="C13" s="31" t="s">
         <v>61</v>
       </c>
       <c r="D13" s="8" t="s">
@@ -3509,90 +3511,90 @@
       </c>
     </row>
     <row r="14" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="27"/>
-      <c r="B14" s="36" t="s">
+      <c r="A14" s="70"/>
+      <c r="B14" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="C14" s="37"/>
+      <c r="C14" s="34"/>
       <c r="D14" s="14"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="24" t="s">
+      <c r="A15" s="69" t="s">
         <v>63</v>
       </c>
-      <c r="B15" s="25" t="s">
+      <c r="B15" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="C15" s="43" t="s">
+      <c r="C15" s="63" t="s">
         <v>56</v>
       </c>
-      <c r="D15" s="44" t="s">
+      <c r="D15" s="66" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="33"/>
+      <c r="A16" s="71"/>
       <c r="B16" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="C16" s="45"/>
-      <c r="D16" s="46"/>
+      <c r="C16" s="64"/>
+      <c r="D16" s="67"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="33"/>
+      <c r="A17" s="71"/>
       <c r="B17" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="C17" s="45"/>
-      <c r="D17" s="46"/>
+      <c r="C17" s="64"/>
+      <c r="D17" s="67"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="33"/>
+      <c r="A18" s="71"/>
       <c r="B18" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="C18" s="45"/>
-      <c r="D18" s="46"/>
+      <c r="C18" s="64"/>
+      <c r="D18" s="67"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="33"/>
+      <c r="A19" s="71"/>
       <c r="B19" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="C19" s="45"/>
-      <c r="D19" s="46"/>
+      <c r="C19" s="64"/>
+      <c r="D19" s="67"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="33"/>
+      <c r="A20" s="71"/>
       <c r="B20" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="C20" s="45"/>
-      <c r="D20" s="46"/>
+      <c r="C20" s="64"/>
+      <c r="D20" s="67"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="33"/>
+      <c r="A21" s="71"/>
       <c r="B21" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="C21" s="45"/>
-      <c r="D21" s="46"/>
+      <c r="C21" s="64"/>
+      <c r="D21" s="67"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="33"/>
+      <c r="A22" s="71"/>
       <c r="B22" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="C22" s="45"/>
-      <c r="D22" s="46"/>
+      <c r="C22" s="64"/>
+      <c r="D22" s="67"/>
     </row>
     <row r="23" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="27"/>
-      <c r="B23" s="28" t="s">
+      <c r="A23" s="70"/>
+      <c r="B23" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="C23" s="47"/>
-      <c r="D23" s="48"/>
+      <c r="C23" s="65"/>
+      <c r="D23" s="68"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -3743,7 +3745,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
